--- a/Classifier1/Forrest_StatsImportanceTotal.xlsx
+++ b/Classifier1/Forrest_StatsImportanceTotal.xlsx
@@ -486,7 +486,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -548,7 +548,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -587,7 +587,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -660,7 +660,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -991,7 +991,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1053,7 +1053,7 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
-              <a:t/>
+              <a:t>None</a:t>
             </a:r>
             <a:endParaRPr lang="en-US"/>
           </a:p>
@@ -1092,7 +1092,7 @@
             </a:defRPr>
           </a:pPr>
           <a:r>
-            <a:t/>
+            <a:t>None</a:t>
           </a:r>
           <a:endParaRPr lang="en-US"/>
         </a:p>
@@ -1484,34 +1484,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Estimators</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>FScore</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1533,7 +1533,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1577,7 +1577,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B5" t="inlineStr">
@@ -1619,34 +1619,34 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="3" t="inlineStr">
         <is>
           <t>Estimators</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="3" t="inlineStr">
         <is>
           <t>Accuracy</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="3" t="inlineStr">
         <is>
           <t>Precision</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="3" t="inlineStr">
         <is>
           <t>Recall</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>FScore</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="3" t="n">
         <v>2</v>
       </c>
       <c r="B2" t="inlineStr">
@@ -1668,7 +1668,7 @@
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="3" t="n">
         <v>0</v>
       </c>
       <c r="B3" t="inlineStr">
@@ -1690,7 +1690,7 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="n">
+      <c r="A4" s="3" t="n">
         <v>1</v>
       </c>
       <c r="B4" t="inlineStr">
@@ -1712,7 +1712,7 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="n">
+      <c r="A5" s="3" t="n">
         <v>5</v>
       </c>
       <c r="B5" t="inlineStr">
